--- a/web.xlsx
+++ b/web.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>描述</t>
   </si>
@@ -62,10 +62,6 @@
     <t>头像上传</t>
   </si>
   <si>
-    <t xml:space="preserve">//1 成功
-</t>
-  </si>
-  <si>
     <t>签名上传</t>
   </si>
   <si>
@@ -91,11 +87,6 @@
   </si>
   <si>
     <t>查看日程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//1 成功
-//2 用户名已存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -261,17 +252,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/1 设置成功</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//1 成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">//1 成功
-</t>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/regist</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -287,18 +279,213 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/获取全部数据</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//获取全部数据</t>
+      <t>users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/login</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/avatar/file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/sign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/write</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>article</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/write</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article/getWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article/delWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/addTripItinerary</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/addDaliySchedule</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getlastItinerary</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/sc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/getlastSchedules</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/nnames/writing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//1 成功 
+//2 用户名已存在 前端：李丹阳 后台：朱淋澜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//1 成功
 //2 密码为空或密码错误
-//3 用户名为空或用户名错误</t>
+//3 用户名为空或用户名错误 前端：彭唯 后台：秦媛媛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">//1上传成功 前端：彭唯 后台：秦媛媛                  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">//1 成功 前端：秦媛媛 后台：秦媛媛
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//1 成功 前端：李丹阳 后台：朱淋澜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//获取全部数据 后台：朱淋澜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">//1 成功 后台：李心怡
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">//1 成功 前端：彭唯 后台：李颖
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -314,202 +501,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>user</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/regist</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>users</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/login</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/avatar/file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/sign</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/write</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>article</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/write</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/article/getWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/article/delWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/addTripItinerary</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/addDaliySchedule</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getlastItinerary</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/sc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/getlastSchedules</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/nnames/writing</t>
+      <t>/获取全部数据 后台：李颖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//1 成功
+前端：李丹阳 后台：李颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//获取全部数据 后台：李心怡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">//1 设置成功 前端：秦媛媛 后台：李心怡 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,9 +593,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -908,25 +911,25 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="54">
@@ -934,22 +937,22 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="54">
@@ -957,53 +960,53 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="54">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="54">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -1012,150 +1015,150 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="40.5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="54">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="67.5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="67.5">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="67.5">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="67.5">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="67.5">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
